--- a/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
+++ b/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
@@ -8814,21 +8814,11 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8836,14 +8826,32 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -8852,42 +8860,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8898,6 +8895,9 @@
     </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -8911,10 +8911,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15117,8 +15117,8 @@
   </sheetPr>
   <dimension ref="A2:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -15180,11 +15180,11 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" s="21" customFormat="1" ht="23" thickTop="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -15195,31 +15195,31 @@
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:14" s="63" customFormat="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="101" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="98" t="s">
+      <c r="E6" s="118"/>
+      <c r="F6" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="58"/>
       <c r="L6" s="59"/>
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:14" ht="22" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="106" t="s">
         <v>586</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="99" t="s">
         <v>583</v>
       </c>
       <c r="C7" s="112" t="s">
@@ -15246,16 +15246,16 @@
       <c r="J7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="97"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="1"/>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:14" ht="54">
-      <c r="A8" s="111"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="113"/>
       <c r="D8" s="57" t="s">
         <v>128</v>
@@ -15278,8 +15278,8 @@
       <c r="J8" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="1"/>
       <c r="N8"/>
     </row>
@@ -15333,11 +15333,11 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14" s="21" customFormat="1" ht="22.5">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -15348,31 +15348,31 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:14" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="101" t="s">
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="98" t="s">
+      <c r="E12" s="118"/>
+      <c r="F12" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="58"/>
       <c r="L12" s="59"/>
       <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:14" s="65" customFormat="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="106" t="s">
         <v>586</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="99" t="s">
         <v>583</v>
       </c>
       <c r="C13" s="112" t="s">
@@ -15399,15 +15399,15 @@
       <c r="J13" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="97" t="s">
+      <c r="K13" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="97"/>
+      <c r="L13" s="105"/>
       <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:14" s="65" customFormat="1" ht="51" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="113"/>
       <c r="D14" s="57" t="s">
         <v>128</v>
@@ -15430,8 +15430,8 @@
       <c r="J14" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="72">
@@ -15465,7 +15465,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D15, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D15, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="104">
         <f>IFERROR(AVERAGE(K15:K17),0)</f>
         <v>1</v>
       </c>
@@ -15503,7 +15503,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D16, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D16, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="102"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="1"/>
       <c r="N16"/>
     </row>
@@ -15538,7 +15538,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D17, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D17, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L17" s="102"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="1"/>
       <c r="N17"/>
     </row>
@@ -15651,7 +15651,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D20, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D20, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L20" s="102">
+      <c r="L20" s="104">
         <f>IFERROR(AVERAGE(K20:K21),0)</f>
         <v>1.5</v>
       </c>
@@ -15689,7 +15689,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D21, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D21, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L21" s="102"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="1"/>
       <c r="N21"/>
     </row>
@@ -15724,7 +15724,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D22, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D22, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L22" s="102">
+      <c r="L22" s="104">
         <f>IFERROR(AVERAGE(K22:K40),0)</f>
         <v>2.5</v>
       </c>
@@ -15762,7 +15762,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D23, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D23, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="1"/>
       <c r="N23"/>
     </row>
@@ -15797,7 +15797,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D24, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D24, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L24" s="102"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="1"/>
       <c r="N24"/>
     </row>
@@ -15832,7 +15832,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D25, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D25, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="1"/>
       <c r="N25"/>
     </row>
@@ -15867,7 +15867,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D26, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D26, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="1"/>
       <c r="N26"/>
     </row>
@@ -15898,7 +15898,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D27, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D27, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L27" s="102"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="1"/>
       <c r="N27"/>
     </row>
@@ -15929,7 +15929,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D28, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D28, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L28" s="102"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="1"/>
       <c r="N28"/>
     </row>
@@ -15962,7 +15962,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D29, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D29, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L29" s="102"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="1"/>
       <c r="N29"/>
     </row>
@@ -15993,7 +15993,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D30, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D30, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L30" s="102"/>
+      <c r="L30" s="104"/>
       <c r="M30" s="1"/>
       <c r="N30"/>
     </row>
@@ -16026,7 +16026,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D31, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D31, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L31" s="102"/>
+      <c r="L31" s="104"/>
       <c r="M31" s="1"/>
       <c r="N31"/>
     </row>
@@ -16061,7 +16061,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D32, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D32, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L32" s="102"/>
+      <c r="L32" s="104"/>
       <c r="M32" s="1"/>
       <c r="N32"/>
     </row>
@@ -16096,7 +16096,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D33, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D33, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L33" s="102"/>
+      <c r="L33" s="104"/>
       <c r="M33" s="1"/>
       <c r="N33"/>
     </row>
@@ -16131,7 +16131,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D34, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D34, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L34" s="102"/>
+      <c r="L34" s="104"/>
       <c r="M34" s="1"/>
       <c r="N34"/>
     </row>
@@ -16166,7 +16166,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D35, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D35, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L35" s="102"/>
+      <c r="L35" s="104"/>
       <c r="M35" s="1"/>
       <c r="N35"/>
     </row>
@@ -16201,7 +16201,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D36, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D36, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L36" s="102"/>
+      <c r="L36" s="104"/>
       <c r="M36" s="1"/>
       <c r="N36"/>
     </row>
@@ -16234,7 +16234,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D37, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D37, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L37" s="102"/>
+      <c r="L37" s="104"/>
       <c r="M37" s="1"/>
       <c r="N37"/>
     </row>
@@ -16265,7 +16265,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D38, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D38, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L38" s="102"/>
+      <c r="L38" s="104"/>
       <c r="M38" s="1"/>
       <c r="N38"/>
     </row>
@@ -16296,7 +16296,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D39, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D39, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L39" s="102"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="1"/>
       <c r="N39"/>
     </row>
@@ -16327,7 +16327,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D40, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D40, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L40" s="102"/>
+      <c r="L40" s="104"/>
       <c r="M40" s="1"/>
       <c r="N40"/>
     </row>
@@ -16358,7 +16358,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D41, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D41, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L41" s="102">
+      <c r="L41" s="104">
         <f>IFERROR(AVERAGE(K41:K49),0)</f>
         <v>0.77777777777777779</v>
       </c>
@@ -16392,7 +16392,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D42, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D42, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L42" s="102"/>
+      <c r="L42" s="104"/>
       <c r="M42" s="1"/>
       <c r="N42"/>
     </row>
@@ -16423,7 +16423,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D43, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D43, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L43" s="102"/>
+      <c r="L43" s="104"/>
       <c r="M43" s="1"/>
       <c r="N43"/>
     </row>
@@ -16454,7 +16454,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D44, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D44, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L44" s="102"/>
+      <c r="L44" s="104"/>
       <c r="M44" s="1"/>
       <c r="N44"/>
     </row>
@@ -16485,7 +16485,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D45, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D45, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L45" s="102"/>
+      <c r="L45" s="104"/>
       <c r="M45" s="1"/>
       <c r="N45"/>
     </row>
@@ -16516,7 +16516,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D46, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D46, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L46" s="102"/>
+      <c r="L46" s="104"/>
       <c r="M46" s="1"/>
       <c r="N46"/>
     </row>
@@ -16549,7 +16549,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D47, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D47, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L47" s="102"/>
+      <c r="L47" s="104"/>
       <c r="M47" s="1"/>
       <c r="N47"/>
     </row>
@@ -16582,7 +16582,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D48, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D48, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L48" s="102"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="1"/>
       <c r="N48"/>
     </row>
@@ -16613,7 +16613,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D49, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D49, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L49" s="102"/>
+      <c r="L49" s="104"/>
       <c r="M49" s="1"/>
       <c r="N49"/>
     </row>
@@ -16644,7 +16644,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D50, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D50, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L50" s="102">
+      <c r="L50" s="104">
         <f>IFERROR(AVERAGE(K50:K51),0)</f>
         <v>2</v>
       </c>
@@ -16678,7 +16678,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D51, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D51, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="L51" s="102"/>
+      <c r="L51" s="104"/>
       <c r="M51" s="1"/>
       <c r="N51"/>
     </row>
@@ -16709,7 +16709,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D52, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D52, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L52" s="102">
+      <c r="L52" s="104">
         <f>IFERROR(AVERAGE(K52:K57),0)</f>
         <v>2.1666666666666665</v>
       </c>
@@ -16741,7 +16741,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D53, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D53, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L53" s="102"/>
+      <c r="L53" s="104"/>
       <c r="M53" s="1"/>
       <c r="N53"/>
     </row>
@@ -16772,7 +16772,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D54, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D54, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L54" s="102"/>
+      <c r="L54" s="104"/>
       <c r="M54" s="1"/>
       <c r="N54"/>
     </row>
@@ -16805,7 +16805,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D55, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D55, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L55" s="102"/>
+      <c r="L55" s="104"/>
       <c r="M55" s="1"/>
       <c r="N55"/>
     </row>
@@ -16836,7 +16836,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D56, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D56, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>3</v>
       </c>
-      <c r="L56" s="102"/>
+      <c r="L56" s="104"/>
       <c r="M56" s="1"/>
       <c r="N56"/>
     </row>
@@ -16869,7 +16869,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D57, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D57, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L57" s="102"/>
+      <c r="L57" s="104"/>
       <c r="M57" s="1"/>
       <c r="N57"/>
     </row>
@@ -16879,44 +16879,44 @@
       <c r="N58"/>
     </row>
     <row r="59" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
       <c r="L59" s="47"/>
       <c r="M59" s="1"/>
       <c r="N59"/>
     </row>
     <row r="60" spans="1:14" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="101" t="s">
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="98" t="s">
+      <c r="E60" s="118"/>
+      <c r="F60" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="100"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
       <c r="K60" s="60"/>
       <c r="L60" s="61"/>
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="99" t="s">
         <v>583</v>
       </c>
-      <c r="C61" s="110" t="s">
+      <c r="C61" s="106" t="s">
         <v>225</v>
       </c>
       <c r="D61" s="57" t="s">
@@ -16940,17 +16940,17 @@
       <c r="J61" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="105" t="s">
+      <c r="K61" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="L61" s="105"/>
+      <c r="L61" s="114"/>
       <c r="M61" s="1"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="1:14" ht="54">
-      <c r="A62" s="111"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="111"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="57" t="s">
         <v>128</v>
       </c>
@@ -16972,8 +16972,8 @@
       <c r="J62" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
       <c r="M62" s="1"/>
       <c r="N62"/>
     </row>
@@ -17547,44 +17547,44 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="1:14" ht="56.25" customHeight="1">
-      <c r="A80" s="119" t="s">
+      <c r="A80" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="114"/>
-      <c r="C80" s="115"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="103"/>
       <c r="L80" s="47"/>
       <c r="M80" s="1"/>
       <c r="N80"/>
     </row>
     <row r="81" spans="1:14" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="108" t="s">
+      <c r="A81" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="108"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="101" t="s">
+      <c r="B81" s="110"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="101"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="118"/>
+      <c r="F81" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="100"/>
+      <c r="G81" s="120"/>
+      <c r="H81" s="120"/>
+      <c r="I81" s="120"/>
+      <c r="J81" s="121"/>
       <c r="K81" s="60"/>
       <c r="L81" s="61"/>
       <c r="M81" s="17"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="117" t="s">
+      <c r="B82" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="C82" s="120" t="s">
+      <c r="C82" s="108" t="s">
         <v>225</v>
       </c>
       <c r="D82" s="57" t="s">
@@ -17608,17 +17608,17 @@
       <c r="J82" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="K82" s="105" t="s">
+      <c r="K82" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="L82" s="105"/>
+      <c r="L82" s="114"/>
       <c r="M82" s="1"/>
       <c r="N82"/>
     </row>
     <row r="83" spans="1:14" ht="36">
-      <c r="A83" s="121"/>
-      <c r="B83" s="118"/>
-      <c r="C83" s="121"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="57" t="s">
         <v>128</v>
       </c>
@@ -17640,8 +17640,8 @@
       <c r="J83" s="68" t="s">
         <v>566</v>
       </c>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
       <c r="M83" s="1"/>
       <c r="N83"/>
     </row>
@@ -17678,7 +17678,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D84, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D84, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L84" s="102">
+      <c r="L84" s="104">
         <f>IFERROR(AVERAGE(K84:K87),0)</f>
         <v>0.5</v>
       </c>
@@ -17718,7 +17718,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D85, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D85, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L85" s="102"/>
+      <c r="L85" s="104"/>
       <c r="M85" s="1"/>
       <c r="N85"/>
     </row>
@@ -17753,7 +17753,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D86, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D86, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L86" s="102"/>
+      <c r="L86" s="104"/>
       <c r="M86" s="1"/>
       <c r="N86"/>
     </row>
@@ -17788,7 +17788,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D87, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D87, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L87" s="102"/>
+      <c r="L87" s="104"/>
       <c r="M87" s="1"/>
       <c r="N87"/>
     </row>
@@ -17825,7 +17825,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D88, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D88, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L88" s="102">
+      <c r="L88" s="104">
         <f>IFERROR(AVERAGE(K88:K90),0)</f>
         <v>1</v>
       </c>
@@ -17863,7 +17863,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D89, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D89, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L89" s="102"/>
+      <c r="L89" s="104"/>
       <c r="M89" s="1"/>
       <c r="N89"/>
     </row>
@@ -17898,7 +17898,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D90, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D90, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L90" s="102"/>
+      <c r="L90" s="104"/>
       <c r="M90" s="1"/>
       <c r="N90"/>
     </row>
@@ -17935,7 +17935,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D91, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D91, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L91" s="102">
+      <c r="L91" s="104">
         <f>IFERROR(AVERAGE(K91:K94),0)</f>
         <v>0.75</v>
       </c>
@@ -17975,7 +17975,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D92, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D92, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L92" s="102"/>
+      <c r="L92" s="104"/>
       <c r="M92" s="1"/>
       <c r="N92"/>
     </row>
@@ -18010,7 +18010,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D93, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D93, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L93" s="102"/>
+      <c r="L93" s="104"/>
       <c r="M93" s="1"/>
       <c r="N93"/>
     </row>
@@ -18047,7 +18047,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D94, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D94, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L94" s="102"/>
+      <c r="L94" s="104"/>
       <c r="M94" s="1"/>
       <c r="N94"/>
     </row>
@@ -18082,7 +18082,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D95, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D95, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L95" s="102">
+      <c r="L95" s="104">
         <f>IFERROR(AVERAGE(K95:K97),0)</f>
         <v>1</v>
       </c>
@@ -18122,7 +18122,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D96, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D96, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L96" s="102"/>
+      <c r="L96" s="104"/>
       <c r="M96" s="1"/>
       <c r="N96"/>
     </row>
@@ -18157,7 +18157,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D97, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D97, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="102"/>
+      <c r="L97" s="104"/>
       <c r="M97" s="1"/>
       <c r="N97"/>
     </row>
@@ -18192,7 +18192,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D98, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D98, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L98" s="102">
+      <c r="L98" s="104">
         <f>IFERROR(AVERAGE(K98:K101),0)</f>
         <v>1.25</v>
       </c>
@@ -18230,7 +18230,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D99, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D99, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="L99" s="102"/>
+      <c r="L99" s="104"/>
       <c r="M99" s="1"/>
       <c r="N99"/>
     </row>
@@ -18267,7 +18267,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D100, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D100, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L100" s="102"/>
+      <c r="L100" s="104"/>
       <c r="M100" s="1"/>
       <c r="N100"/>
     </row>
@@ -18304,7 +18304,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D101, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D101, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L101" s="102"/>
+      <c r="L101" s="104"/>
       <c r="M101" s="1"/>
       <c r="N101"/>
     </row>
@@ -18339,7 +18339,7 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D102, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D102, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L102" s="102">
+      <c r="L102" s="104">
         <f>IFERROR(AVERAGE(K102:K103),0)</f>
         <v>2</v>
       </c>
@@ -18379,12 +18379,44 @@
         <f xml:space="preserve"> IF(VLOOKUP(評価シート!D103, 選択項目!$A$1:$B$7, 2, FALSE)=-1, "", VLOOKUP(評価シート!D103, 選択項目!$A$1:$B$7, 2, FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L103" s="102"/>
+      <c r="L103" s="104"/>
       <c r="M103" s="1"/>
       <c r="N103"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L57"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="L41:L49"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="L91:L94"/>
+    <mergeCell ref="L98:L101"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="A80:C80"/>
@@ -18401,38 +18433,6 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="L91:L94"/>
-    <mergeCell ref="L98:L101"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="L41:L49"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="L52:L57"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18456,8 +18456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA750C8-66B5-42F4-B673-345A03E22D4B}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="19" thickTop="1" thickBottom="1"/>
@@ -18502,20 +18502,20 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="70" customFormat="1" ht="23.5" thickTop="1" thickBot="1">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="E5" s="71"/>
       <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="E6" s="73"/>
       <c r="F6" s="74"/>
     </row>
@@ -18565,20 +18565,20 @@
       <c r="F9" s="72"/>
     </row>
     <row r="10" spans="1:6" s="70" customFormat="1" ht="23.5" thickTop="1" thickBot="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="E10" s="71"/>
       <c r="F10" s="72"/>
     </row>
     <row r="11" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
       <c r="E11" s="73"/>
       <c r="F11" s="74"/>
     </row>
@@ -18618,7 +18618,7 @@
         <f xml:space="preserve"> 評価シート!K15</f>
         <v>2</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="124">
         <f>IFERROR(AVERAGE(E13:E15),0)</f>
         <v>1</v>
       </c>
@@ -18639,7 +18639,7 @@
         <f xml:space="preserve"> 評価シート!K16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="124"/>
     </row>
     <row r="15" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A15" s="88" t="s">
@@ -18657,7 +18657,7 @@
         <f xml:space="preserve"> 評価シート!K17</f>
         <v>1</v>
       </c>
-      <c r="F15" s="125"/>
+      <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A16" s="88" t="s">
@@ -18719,7 +18719,7 @@
         <f xml:space="preserve"> 評価シート!K20</f>
         <v>2</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="124">
         <f>IFERROR(AVERAGE(E18:E19),0)</f>
         <v>1.5</v>
       </c>
@@ -18742,7 +18742,7 @@
         <f xml:space="preserve"> 評価シート!K21</f>
         <v>1</v>
       </c>
-      <c r="F19" s="125"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="20" spans="1:6" s="70" customFormat="1" ht="37" thickTop="1" thickBot="1">
       <c r="A20" s="89" t="s">
@@ -18762,7 +18762,7 @@
         <f xml:space="preserve"> 評価シート!K22</f>
         <v/>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="124">
         <f>IFERROR(AVERAGE(E20:E38),0)</f>
         <v>2.5</v>
       </c>
@@ -18785,7 +18785,7 @@
         <f xml:space="preserve"> 評価シート!K23</f>
         <v>1</v>
       </c>
-      <c r="F21" s="125"/>
+      <c r="F21" s="124"/>
     </row>
     <row r="22" spans="1:6" s="70" customFormat="1" ht="37" thickTop="1" thickBot="1">
       <c r="A22" s="89" t="s">
@@ -18805,7 +18805,7 @@
         <f xml:space="preserve"> 評価シート!K24</f>
         <v/>
       </c>
-      <c r="F22" s="125"/>
+      <c r="F22" s="124"/>
     </row>
     <row r="23" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A23" s="89" t="s">
@@ -18825,7 +18825,7 @@
         <f xml:space="preserve"> 評価シート!K25</f>
         <v/>
       </c>
-      <c r="F23" s="125"/>
+      <c r="F23" s="124"/>
     </row>
     <row r="24" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A24" s="89" t="s">
@@ -18845,7 +18845,7 @@
         <f xml:space="preserve"> 評価シート!K26</f>
         <v>3</v>
       </c>
-      <c r="F24" s="125"/>
+      <c r="F24" s="124"/>
     </row>
     <row r="25" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A25" s="89" t="s">
@@ -18863,7 +18863,7 @@
         <f xml:space="preserve"> 評価シート!K27</f>
         <v/>
       </c>
-      <c r="F25" s="125"/>
+      <c r="F25" s="124"/>
     </row>
     <row r="26" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A26" s="89" t="s">
@@ -18881,7 +18881,7 @@
         <f xml:space="preserve"> 評価シート!K28</f>
         <v>3</v>
       </c>
-      <c r="F26" s="125"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A27" s="89" t="s">
@@ -18899,7 +18899,7 @@
         <f xml:space="preserve"> 評価シート!K29</f>
         <v>1</v>
       </c>
-      <c r="F27" s="125"/>
+      <c r="F27" s="124"/>
     </row>
     <row r="28" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A28" s="89" t="s">
@@ -18917,7 +18917,7 @@
         <f xml:space="preserve"> 評価シート!K30</f>
         <v>2</v>
       </c>
-      <c r="F28" s="125"/>
+      <c r="F28" s="124"/>
     </row>
     <row r="29" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A29" s="89" t="s">
@@ -18935,7 +18935,7 @@
         <f xml:space="preserve"> 評価シート!K31</f>
         <v>3</v>
       </c>
-      <c r="F29" s="125"/>
+      <c r="F29" s="124"/>
     </row>
     <row r="30" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A30" s="89" t="s">
@@ -18955,7 +18955,7 @@
         <f xml:space="preserve"> 評価シート!K32</f>
         <v>3</v>
       </c>
-      <c r="F30" s="125"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A31" s="89" t="s">
@@ -18975,7 +18975,7 @@
         <f xml:space="preserve"> 評価シート!K33</f>
         <v/>
       </c>
-      <c r="F31" s="125"/>
+      <c r="F31" s="124"/>
     </row>
     <row r="32" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A32" s="89" t="s">
@@ -18995,7 +18995,7 @@
         <f xml:space="preserve"> 評価シート!K34</f>
         <v/>
       </c>
-      <c r="F32" s="125"/>
+      <c r="F32" s="124"/>
     </row>
     <row r="33" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A33" s="89" t="s">
@@ -19015,7 +19015,7 @@
         <f xml:space="preserve"> 評価シート!K35</f>
         <v/>
       </c>
-      <c r="F33" s="125"/>
+      <c r="F33" s="124"/>
     </row>
     <row r="34" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A34" s="89" t="s">
@@ -19035,7 +19035,7 @@
         <f xml:space="preserve"> 評価シート!K36</f>
         <v/>
       </c>
-      <c r="F34" s="125"/>
+      <c r="F34" s="124"/>
     </row>
     <row r="35" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A35" s="89" t="s">
@@ -19053,7 +19053,7 @@
         <f xml:space="preserve"> 評価シート!K37</f>
         <v/>
       </c>
-      <c r="F35" s="125"/>
+      <c r="F35" s="124"/>
     </row>
     <row r="36" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A36" s="89" t="s">
@@ -19071,7 +19071,7 @@
         <f xml:space="preserve"> 評価シート!K38</f>
         <v>3</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="124"/>
     </row>
     <row r="37" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A37" s="89" t="s">
@@ -19089,7 +19089,7 @@
         <f xml:space="preserve"> 評価シート!K39</f>
         <v>3</v>
       </c>
-      <c r="F37" s="125"/>
+      <c r="F37" s="124"/>
     </row>
     <row r="38" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A38" s="89" t="s">
@@ -19107,7 +19107,7 @@
         <f xml:space="preserve"> 評価シート!K40</f>
         <v>3</v>
       </c>
-      <c r="F38" s="125"/>
+      <c r="F38" s="124"/>
     </row>
     <row r="39" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A39" s="89" t="s">
@@ -19125,7 +19125,7 @@
         <f xml:space="preserve"> 評価シート!K41</f>
         <v>0</v>
       </c>
-      <c r="F39" s="125">
+      <c r="F39" s="124">
         <f>IFERROR(AVERAGE(E39:E47),0)</f>
         <v>0.77777777777777779</v>
       </c>
@@ -19146,7 +19146,7 @@
         <f xml:space="preserve"> 評価シート!K42</f>
         <v>2</v>
       </c>
-      <c r="F40" s="125"/>
+      <c r="F40" s="124"/>
     </row>
     <row r="41" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A41" s="89" t="s">
@@ -19164,7 +19164,7 @@
         <f xml:space="preserve"> 評価シート!K43</f>
         <v>3</v>
       </c>
-      <c r="F41" s="125"/>
+      <c r="F41" s="124"/>
     </row>
     <row r="42" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A42" s="89" t="s">
@@ -19182,7 +19182,7 @@
         <f xml:space="preserve"> 評価シート!K44</f>
         <v>2</v>
       </c>
-      <c r="F42" s="125"/>
+      <c r="F42" s="124"/>
     </row>
     <row r="43" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A43" s="89" t="s">
@@ -19200,7 +19200,7 @@
         <f xml:space="preserve"> 評価シート!K45</f>
         <v>0</v>
       </c>
-      <c r="F43" s="125"/>
+      <c r="F43" s="124"/>
     </row>
     <row r="44" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A44" s="89" t="s">
@@ -19218,7 +19218,7 @@
         <f xml:space="preserve"> 評価シート!K46</f>
         <v>0</v>
       </c>
-      <c r="F44" s="125"/>
+      <c r="F44" s="124"/>
     </row>
     <row r="45" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A45" s="89" t="s">
@@ -19236,7 +19236,7 @@
         <f xml:space="preserve"> 評価シート!K47</f>
         <v>0</v>
       </c>
-      <c r="F45" s="125"/>
+      <c r="F45" s="124"/>
     </row>
     <row r="46" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A46" s="89" t="s">
@@ -19254,7 +19254,7 @@
         <f xml:space="preserve"> 評価シート!K48</f>
         <v>0</v>
       </c>
-      <c r="F46" s="125"/>
+      <c r="F46" s="124"/>
     </row>
     <row r="47" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A47" s="89" t="s">
@@ -19272,7 +19272,7 @@
         <f xml:space="preserve"> 評価シート!K49</f>
         <v>0</v>
       </c>
-      <c r="F47" s="125"/>
+      <c r="F47" s="124"/>
     </row>
     <row r="48" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A48" s="88" t="s">
@@ -19290,7 +19290,7 @@
         <f xml:space="preserve"> 評価シート!K50</f>
         <v>2</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48" s="124">
         <f>IFERROR(AVERAGE(E48:E49),0)</f>
         <v>2</v>
       </c>
@@ -19311,7 +19311,7 @@
         <f xml:space="preserve"> 評価シート!K51</f>
         <v/>
       </c>
-      <c r="F49" s="125"/>
+      <c r="F49" s="124"/>
     </row>
     <row r="50" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A50" s="88" t="s">
@@ -19329,7 +19329,7 @@
         <f xml:space="preserve"> 評価シート!K52</f>
         <v>2</v>
       </c>
-      <c r="F50" s="125">
+      <c r="F50" s="124">
         <f>IFERROR(AVERAGE(E50:E55),0)</f>
         <v>2.1666666666666665</v>
       </c>
@@ -19350,7 +19350,7 @@
         <f xml:space="preserve"> 評価シート!K53</f>
         <v>3</v>
       </c>
-      <c r="F51" s="125"/>
+      <c r="F51" s="124"/>
     </row>
     <row r="52" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A52" s="88" t="s">
@@ -19368,7 +19368,7 @@
         <f xml:space="preserve"> 評価シート!K54</f>
         <v>2</v>
       </c>
-      <c r="F52" s="125"/>
+      <c r="F52" s="124"/>
     </row>
     <row r="53" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A53" s="88" t="s">
@@ -19388,7 +19388,7 @@
         <f xml:space="preserve"> 評価シート!K55</f>
         <v>3</v>
       </c>
-      <c r="F53" s="125"/>
+      <c r="F53" s="124"/>
     </row>
     <row r="54" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A54" s="88" t="s">
@@ -19406,7 +19406,7 @@
         <f xml:space="preserve"> 評価シート!K56</f>
         <v>3</v>
       </c>
-      <c r="F54" s="125"/>
+      <c r="F54" s="124"/>
     </row>
     <row r="55" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A55" s="88" t="s">
@@ -19426,7 +19426,7 @@
         <f xml:space="preserve"> 評価シート!K57</f>
         <v>0</v>
       </c>
-      <c r="F55" s="125"/>
+      <c r="F55" s="124"/>
     </row>
     <row r="56" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A56" s="78"/>
@@ -19435,27 +19435,27 @@
       <c r="F56" s="72"/>
     </row>
     <row r="57" spans="1:6" s="70" customFormat="1" ht="21" thickTop="1" thickBot="1">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
       <c r="F57" s="72"/>
     </row>
     <row r="58" spans="1:6" s="70" customFormat="1" ht="21" thickTop="1" thickBot="1">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
       <c r="F58" s="72"/>
     </row>
     <row r="59" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A59" s="123" t="s">
+      <c r="A59" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="124"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="123"/>
       <c r="E59" s="73"/>
       <c r="F59" s="74"/>
     </row>
@@ -19779,19 +19779,19 @@
       <c r="F77" s="72"/>
     </row>
     <row r="78" spans="1:6" s="70" customFormat="1" ht="21" thickTop="1" thickBot="1">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
       <c r="F78" s="72"/>
     </row>
     <row r="79" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A79" s="123" t="s">
+      <c r="A79" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="124"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="123"/>
       <c r="E79" s="73"/>
       <c r="F79" s="74"/>
     </row>
@@ -19833,7 +19833,7 @@
         <f xml:space="preserve"> 評価シート!K84</f>
         <v>1</v>
       </c>
-      <c r="F81" s="125">
+      <c r="F81" s="124">
         <f>IFERROR(AVERAGE(E81:E84),0)</f>
         <v>0.5</v>
       </c>
@@ -19856,7 +19856,7 @@
         <f xml:space="preserve"> 評価シート!K85</f>
         <v>0</v>
       </c>
-      <c r="F82" s="125"/>
+      <c r="F82" s="124"/>
     </row>
     <row r="83" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A83" s="85" t="s">
@@ -19874,7 +19874,7 @@
         <f xml:space="preserve"> 評価シート!K86</f>
         <v>1</v>
       </c>
-      <c r="F83" s="125"/>
+      <c r="F83" s="124"/>
     </row>
     <row r="84" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A84" s="85" t="s">
@@ -19892,7 +19892,7 @@
         <f xml:space="preserve"> 評価シート!K87</f>
         <v>0</v>
       </c>
-      <c r="F84" s="125"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" s="70" customFormat="1" ht="34" thickTop="1" thickBot="1">
       <c r="A85" s="85" t="s">
@@ -19912,7 +19912,7 @@
         <f xml:space="preserve"> 評価シート!K88</f>
         <v>1</v>
       </c>
-      <c r="F85" s="125">
+      <c r="F85" s="124">
         <f>IFERROR(AVERAGE(E85:E87),0)</f>
         <v>1</v>
       </c>
@@ -19933,7 +19933,7 @@
         <f xml:space="preserve"> 評価シート!K89</f>
         <v>1</v>
       </c>
-      <c r="F86" s="125"/>
+      <c r="F86" s="124"/>
     </row>
     <row r="87" spans="1:6" s="70" customFormat="1" ht="34" thickTop="1" thickBot="1">
       <c r="A87" s="85" t="s">
@@ -19951,7 +19951,7 @@
         <f xml:space="preserve"> 評価シート!K90</f>
         <v>1</v>
       </c>
-      <c r="F87" s="125"/>
+      <c r="F87" s="124"/>
     </row>
     <row r="88" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A88" s="85" t="s">
@@ -19971,7 +19971,7 @@
         <f xml:space="preserve"> 評価シート!K91</f>
         <v>1</v>
       </c>
-      <c r="F88" s="125">
+      <c r="F88" s="124">
         <f>IFERROR(AVERAGE(E88:E91),0)</f>
         <v>0.75</v>
       </c>
@@ -19994,7 +19994,7 @@
         <f xml:space="preserve"> 評価シート!K92</f>
         <v>1</v>
       </c>
-      <c r="F89" s="125"/>
+      <c r="F89" s="124"/>
     </row>
     <row r="90" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A90" s="85" t="s">
@@ -20012,7 +20012,7 @@
         <f xml:space="preserve"> 評価シート!K93</f>
         <v>1</v>
       </c>
-      <c r="F90" s="125"/>
+      <c r="F90" s="124"/>
     </row>
     <row r="91" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A91" s="85" t="s">
@@ -20032,7 +20032,7 @@
         <f xml:space="preserve"> 評価シート!K94</f>
         <v>0</v>
       </c>
-      <c r="F91" s="125"/>
+      <c r="F91" s="124"/>
     </row>
     <row r="92" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A92" s="85" t="s">
@@ -20050,7 +20050,7 @@
         <f xml:space="preserve"> 評価シート!K95</f>
         <v>1</v>
       </c>
-      <c r="F92" s="125">
+      <c r="F92" s="124">
         <f>IFERROR(AVERAGE(E92:E94),0)</f>
         <v>1</v>
       </c>
@@ -20073,7 +20073,7 @@
         <f xml:space="preserve"> 評価シート!K96</f>
         <v>2</v>
       </c>
-      <c r="F93" s="125"/>
+      <c r="F93" s="124"/>
     </row>
     <row r="94" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A94" s="85" t="s">
@@ -20091,7 +20091,7 @@
         <f xml:space="preserve"> 評価シート!K97</f>
         <v>0</v>
       </c>
-      <c r="F94" s="125"/>
+      <c r="F94" s="124"/>
     </row>
     <row r="95" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A95" s="85" t="s">
@@ -20109,7 +20109,7 @@
         <f xml:space="preserve"> 評価シート!K98</f>
         <v>0</v>
       </c>
-      <c r="F95" s="125">
+      <c r="F95" s="124">
         <f>IFERROR(AVERAGE(E95:E98),0)</f>
         <v>1.25</v>
       </c>
@@ -20130,7 +20130,7 @@
         <f xml:space="preserve"> 評価シート!K99</f>
         <v>1</v>
       </c>
-      <c r="F96" s="125"/>
+      <c r="F96" s="124"/>
     </row>
     <row r="97" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A97" s="85" t="s">
@@ -20150,7 +20150,7 @@
         <f xml:space="preserve"> 評価シート!K100</f>
         <v>2</v>
       </c>
-      <c r="F97" s="125"/>
+      <c r="F97" s="124"/>
     </row>
     <row r="98" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A98" s="85" t="s">
@@ -20170,7 +20170,7 @@
         <f xml:space="preserve"> 評価シート!K101</f>
         <v>2</v>
       </c>
-      <c r="F98" s="125"/>
+      <c r="F98" s="124"/>
     </row>
     <row r="99" spans="1:6" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A99" s="85" t="s">
@@ -20188,7 +20188,7 @@
         <f xml:space="preserve"> 評価シート!K102</f>
         <v>2</v>
       </c>
-      <c r="F99" s="125">
+      <c r="F99" s="124">
         <f>IFERROR(AVERAGE(E99:E100),0)</f>
         <v>2</v>
       </c>
@@ -20211,7 +20211,7 @@
         <f xml:space="preserve"> 評価シート!K103</f>
         <v>2</v>
       </c>
-      <c r="F100" s="125"/>
+      <c r="F100" s="124"/>
     </row>
     <row r="101" spans="1:6" ht="18"/>
     <row r="102" spans="1:6" ht="18"/>
@@ -20220,16 +20220,6 @@
     <row r="105" spans="1:6" ht="18"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F38"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F55"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:C59"/>
@@ -20241,6 +20231,16 @@
     <mergeCell ref="F88:F91"/>
     <mergeCell ref="F92:F94"/>
     <mergeCell ref="F95:F98"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F38"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F13:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D8">
@@ -20290,8 +20290,8 @@
   </sheetPr>
   <dimension ref="M2:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -20354,7 +20354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AF004F-EE1A-6B4F-8BC7-CACC45B841E5}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -20450,7 +20450,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="130" t="s">
         <v>130</v>
       </c>
       <c r="E5" t="s">
@@ -20464,7 +20464,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="130"/>
       <c r="E6" t="s">
         <v>165</v>
       </c>
@@ -20476,7 +20476,7 @@
       <c r="B7">
         <v>-1</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="130"/>
       <c r="E7" t="s">
         <v>166</v>
       </c>
@@ -20498,7 +20498,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="130" t="s">
         <v>154</v>
       </c>
       <c r="E10" t="s">
@@ -20506,13 +20506,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" s="131"/>
+      <c r="D11" s="130"/>
       <c r="E11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="130" t="s">
         <v>69</v>
       </c>
       <c r="E12" t="s">
@@ -20520,115 +20520,115 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" s="131"/>
+      <c r="D13" s="130"/>
       <c r="E13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="D14" s="131"/>
+      <c r="D14" s="130"/>
       <c r="E14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="D15" s="131"/>
+      <c r="D15" s="130"/>
       <c r="E15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="D16" s="131"/>
+      <c r="D16" s="130"/>
       <c r="E16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="131"/>
+      <c r="D17" s="130"/>
       <c r="E17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="131"/>
+      <c r="D18" s="130"/>
       <c r="E18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="131"/>
+      <c r="D19" s="130"/>
       <c r="E19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="131"/>
+      <c r="D20" s="130"/>
       <c r="E20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="131"/>
+      <c r="D21" s="130"/>
       <c r="E21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="131"/>
+      <c r="D22" s="130"/>
       <c r="E22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="131"/>
+      <c r="D23" s="130"/>
       <c r="E23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="131"/>
+      <c r="D24" s="130"/>
       <c r="E24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="131"/>
+      <c r="D25" s="130"/>
       <c r="E25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="131"/>
+      <c r="D26" s="130"/>
       <c r="E26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="131"/>
+      <c r="D27" s="130"/>
       <c r="E27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="131"/>
+      <c r="D28" s="130"/>
       <c r="E28" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="131"/>
+      <c r="D29" s="130"/>
       <c r="E29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="131"/>
+      <c r="D30" s="130"/>
       <c r="E30" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>70</v>
       </c>
       <c r="E31" t="s">
@@ -20636,55 +20636,55 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="131"/>
+      <c r="D32" s="130"/>
       <c r="E32" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="131"/>
+      <c r="D33" s="130"/>
       <c r="E33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="131"/>
+      <c r="D34" s="130"/>
       <c r="E34" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="131"/>
+      <c r="D35" s="130"/>
       <c r="E35" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="131"/>
+      <c r="D36" s="130"/>
       <c r="E36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="131"/>
+      <c r="D37" s="130"/>
       <c r="E37" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="131"/>
+      <c r="D38" s="130"/>
       <c r="E38" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="131"/>
+      <c r="D39" s="130"/>
       <c r="E39" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="131" t="s">
+      <c r="D40" s="130" t="s">
         <v>131</v>
       </c>
       <c r="E40" t="s">
@@ -20692,13 +20692,13 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="131"/>
+      <c r="D41" s="130"/>
       <c r="E41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="130" t="s">
         <v>155</v>
       </c>
       <c r="E42" t="s">
@@ -20706,31 +20706,31 @@
       </c>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="131"/>
+      <c r="D43" s="130"/>
       <c r="E43" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="131"/>
+      <c r="D44" s="130"/>
       <c r="E44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="131"/>
+      <c r="D45" s="130"/>
       <c r="E45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="131"/>
+      <c r="D46" s="130"/>
       <c r="E46" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="131"/>
+      <c r="D47" s="130"/>
       <c r="E47" t="s">
         <v>163</v>
       </c>
@@ -20811,7 +20811,7 @@
       </c>
     </row>
     <row r="73" spans="4:5">
-      <c r="D73" s="130" t="s">
+      <c r="D73" s="131" t="s">
         <v>148</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -20819,25 +20819,25 @@
       </c>
     </row>
     <row r="74" spans="4:5">
-      <c r="D74" s="130"/>
+      <c r="D74" s="131"/>
       <c r="E74" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="33">
-      <c r="D75" s="130"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="76" spans="4:5">
-      <c r="D76" s="130"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="77" spans="4:5">
-      <c r="D77" s="130" t="s">
+      <c r="D77" s="131" t="s">
         <v>149</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -20845,19 +20845,19 @@
       </c>
     </row>
     <row r="78" spans="4:5">
-      <c r="D78" s="130"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="79" spans="4:5" ht="33">
-      <c r="D79" s="130"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="80" spans="4:5">
-      <c r="D80" s="130" t="s">
+      <c r="D80" s="131" t="s">
         <v>150</v>
       </c>
       <c r="E80" s="11" t="s">
@@ -20865,25 +20865,25 @@
       </c>
     </row>
     <row r="81" spans="4:5">
-      <c r="D81" s="130"/>
+      <c r="D81" s="131"/>
       <c r="E81" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" spans="4:5" ht="33">
-      <c r="D82" s="130"/>
+      <c r="D82" s="131"/>
       <c r="E82" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83" spans="4:5">
-      <c r="D83" s="130"/>
+      <c r="D83" s="131"/>
       <c r="E83" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" spans="4:5" ht="33">
-      <c r="D84" s="130" t="s">
+      <c r="D84" s="131" t="s">
         <v>151</v>
       </c>
       <c r="E84" s="11" t="s">
@@ -20891,19 +20891,19 @@
       </c>
     </row>
     <row r="85" spans="4:5">
-      <c r="D85" s="130"/>
+      <c r="D85" s="131"/>
       <c r="E85" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="86" spans="4:5" ht="33">
-      <c r="D86" s="130"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="130" t="s">
+      <c r="D87" s="131" t="s">
         <v>152</v>
       </c>
       <c r="E87" s="11" t="s">
@@ -20911,25 +20911,25 @@
       </c>
     </row>
     <row r="88" spans="4:5">
-      <c r="D88" s="130"/>
+      <c r="D88" s="131"/>
       <c r="E88" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="89" spans="4:5">
-      <c r="D89" s="130"/>
+      <c r="D89" s="131"/>
       <c r="E89" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="4:5">
-      <c r="D90" s="130"/>
+      <c r="D90" s="131"/>
       <c r="E90" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="91" spans="4:5">
-      <c r="D91" s="130" t="s">
+      <c r="D91" s="131" t="s">
         <v>153</v>
       </c>
       <c r="E91" s="11" t="s">
@@ -20937,18 +20937,13 @@
       </c>
     </row>
     <row r="92" spans="4:5">
-      <c r="D92" s="130"/>
+      <c r="D92" s="131"/>
       <c r="E92" s="11" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D30"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="D42:D47"/>
@@ -20956,6 +20951,11 @@
     <mergeCell ref="D77:D79"/>
     <mergeCell ref="D80:D83"/>
     <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D30"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20973,15 +20973,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21215,33 +21206,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14BD0E58-BF4A-49E4-881F-50DB08D19D6F}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D818DDF-49A5-47B5-AA31-B303F5DADAD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F61C5A-B217-4CE4-A9D6-32C704FD5404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21259,4 +21251,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D818DDF-49A5-47B5-AA31-B303F5DADAD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
+++ b/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
@@ -20968,13 +20968,17 @@
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -20998,6 +21002,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -21076,6 +21082,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21105,6 +21118,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -21234,23 +21258,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F61C5A-B217-4CE4-A9D6-32C704FD5404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739719D5-571D-4462-B61A-4D92607A366E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
+++ b/460_実践ガイドブック/468-2_データ品質評価ツール.xlsx
@@ -21258,7 +21258,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739719D5-571D-4462-B61A-4D92607A366E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFAAB79-23D9-425C-9A2B-A1D30D929585}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
